--- a/packages/central-server/src/tests/testData/surveyResponses/functionality/nonPeriodicUpdates.xlsx
+++ b/packages/central-server/src/tests/testData/surveyResponses/functionality/nonPeriodicUpdates.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25003"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CBFD17FF-B8BB-470B-94AA-578FC0FA0764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/salmanraza/Documents/GitHub/tupaia/packages/central-server/src/tests/testData/surveyResponses/functionality/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84B5D2EC-6A00-E84E-8982-2A9289729F1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="16380" windowHeight="8200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test_Clinic_Data" sheetId="1" r:id="rId1"/>
     <sheet name="Test_Facility_Fundamentals" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028" iterateDelta="1E-4"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="77">
   <si>
     <t>Id</t>
   </si>
@@ -256,13 +261,19 @@
   </si>
   <si>
     <t>8000</t>
+  </si>
+  <si>
+    <t>Entity Name</t>
+  </si>
+  <si>
+    <t>Entity Code</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -404,9 +415,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -444,7 +455,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -550,7 +561,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -692,7 +703,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -703,34 +714,34 @@
   <dimension ref="A1:T8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.25" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.375" customWidth="1"/>
-    <col min="3" max="3" width="23.375" customWidth="1"/>
+    <col min="1" max="1" width="27.33203125" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" customWidth="1"/>
     <col min="4" max="4" width="31" customWidth="1"/>
-    <col min="5" max="5" width="25.125" customWidth="1"/>
-    <col min="6" max="6" width="21.375" customWidth="1"/>
-    <col min="7" max="7" width="13.875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.375" customWidth="1"/>
-    <col min="9" max="9" width="20.25" customWidth="1"/>
+    <col min="5" max="5" width="25.1640625" customWidth="1"/>
+    <col min="6" max="6" width="21.33203125" customWidth="1"/>
+    <col min="7" max="7" width="13.83203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.33203125" customWidth="1"/>
+    <col min="9" max="9" width="20.1640625" customWidth="1"/>
     <col min="10" max="10" width="19.5" customWidth="1"/>
     <col min="11" max="11" width="30" customWidth="1"/>
-    <col min="12" max="12" width="16.625" customWidth="1"/>
-    <col min="13" max="13" width="17.25" customWidth="1"/>
-    <col min="14" max="14" width="16.625" customWidth="1"/>
-    <col min="15" max="15" width="14.75" customWidth="1"/>
-    <col min="16" max="16" width="15.375" customWidth="1"/>
-    <col min="17" max="17" width="17.625" customWidth="1"/>
-    <col min="19" max="19" width="27.75" customWidth="1"/>
-    <col min="20" max="20" width="29.25" customWidth="1"/>
+    <col min="12" max="12" width="16.6640625" customWidth="1"/>
+    <col min="13" max="13" width="17.1640625" customWidth="1"/>
+    <col min="14" max="14" width="16.6640625" customWidth="1"/>
+    <col min="15" max="15" width="14.6640625" customWidth="1"/>
+    <col min="16" max="16" width="15.33203125" customWidth="1"/>
+    <col min="17" max="17" width="17.6640625" customWidth="1"/>
+    <col min="19" max="19" width="27.6640625" customWidth="1"/>
+    <col min="20" max="20" width="29.1640625" customWidth="1"/>
     <col min="859" max="975" width="10.5" customWidth="1"/>
     <col min="979" max="1024" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -792,7 +803,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -803,7 +814,7 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
@@ -851,7 +862,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -862,7 +873,7 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="E3" t="s">
         <v>18</v>
@@ -910,7 +921,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -969,7 +980,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -1002,7 +1013,7 @@
       <c r="O5" s="5"/>
       <c r="Q5" s="5"/>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>42</v>
       </c>
@@ -1051,7 +1062,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>48</v>
       </c>
@@ -1088,7 +1099,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>56</v>
       </c>
@@ -1143,17 +1154,17 @@
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.25" defaultRowHeight="15.95"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.875" customWidth="1"/>
-    <col min="3" max="3" width="22.375" customWidth="1"/>
-    <col min="4" max="4" width="28.125" customWidth="1"/>
-    <col min="5" max="5" width="31.375" customWidth="1"/>
-    <col min="6" max="6" width="27.625" customWidth="1"/>
+    <col min="1" max="1" width="11.83203125" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" customWidth="1"/>
+    <col min="4" max="4" width="28.1640625" customWidth="1"/>
+    <col min="5" max="5" width="31.33203125" customWidth="1"/>
+    <col min="6" max="6" width="27.6640625" customWidth="1"/>
     <col min="961" max="1017" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1173,7 +1184,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1193,7 +1204,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1213,7 +1224,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1233,7 +1244,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>65</v>
       </c>
@@ -1253,7 +1264,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>70</v>
       </c>
